--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2312.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2312.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.198415814701997</v>
+        <v>0.9127805829048157</v>
       </c>
       <c r="B1">
-        <v>1.753422965402662</v>
+        <v>1.636133670806885</v>
       </c>
       <c r="C1">
-        <v>1.530694489714773</v>
+        <v>2.166375637054443</v>
       </c>
       <c r="D1">
-        <v>1.653941565567712</v>
+        <v>2.25888729095459</v>
       </c>
       <c r="E1">
-        <v>2.009058659712735</v>
+        <v>1.557436108589172</v>
       </c>
     </row>
   </sheetData>
